--- a/Gemini/report3.xlsx
+++ b/Gemini/report3.xlsx
@@ -2122,7 +2122,11 @@
           <t>make_canonical_parser_cwe-787.c</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CWE-120</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>CWE-787</t>
